--- a/配置文档/实体配置相关/实体相关配置.xlsx
+++ b/配置文档/实体配置相关/实体相关配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13650" windowHeight="6465"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_BaseObjectData_实体表" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="168">
   <si>
     <t>该表用于配置实体数据如碰撞数据
 单个数据不想填就写 #BASEVALUE
@@ -245,6 +245,57 @@
     <t>自律体-2</t>
   </si>
   <si>
+    <t>轮胎</t>
+  </si>
+  <si>
+    <t>撞击轮</t>
+  </si>
+  <si>
+    <t>锯片</t>
+  </si>
+  <si>
+    <t>牙钳</t>
+  </si>
+  <si>
+    <t>分形</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
+    <t>电锯</t>
+  </si>
+  <si>
+    <t>喷火者</t>
+  </si>
+  <si>
+    <t>胶囊</t>
+  </si>
+  <si>
+    <t>尖刺</t>
+  </si>
+  <si>
+    <t>侍卫</t>
+  </si>
+  <si>
+    <t>电击</t>
+  </si>
+  <si>
+    <t>刺击者</t>
+  </si>
+  <si>
+    <t>双联射手</t>
+  </si>
+  <si>
+    <t>火炮手</t>
+  </si>
+  <si>
+    <t>轰击</t>
+  </si>
+  <si>
+    <t>溶解</t>
+  </si>
+  <si>
     <t>测试炮塔1</t>
   </si>
   <si>
@@ -284,9 +335,18 @@
     <t>WeaponNum</t>
   </si>
   <si>
+    <t>STR</t>
+  </si>
+  <si>
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
+    <t>小型激光切割器</t>
+  </si>
+  <si>
+    <t>所有小型远程单位耗尽弹药后所使用的武器</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
@@ -342,9 +402,6 @@
   </si>
   <si>
     <t>554.1233  622125.1231</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
   <si>
     <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
@@ -1564,10 +1621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1910,247 +1967,1099 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:18">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2001</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:18">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:18">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:18">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="12">
+        <v>47</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="14">
         <v>1</v>
       </c>
       <c r="M9" s="17">
         <v>1</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="10">
-        <v>2</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="12">
+      <c r="O9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="14">
         <v>0</v>
       </c>
-      <c r="R9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:18">
-      <c r="A12" s="10">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10">
-        <v>3001</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="1" spans="1:18">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="16">
         <v>3</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" spans="1:18">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:18">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="12">
+        <v>47</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="14">
         <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>1</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="10">
-        <v>2</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="12">
+      <c r="O12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="14">
         <v>0</v>
       </c>
-      <c r="R12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:18">
-      <c r="A13" s="10">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10">
-        <v>3002</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="R12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:18">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="12">
+        <v>47</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="14">
         <v>1</v>
       </c>
       <c r="M13" s="17">
         <v>1</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="10">
-        <v>2</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="12">
+      <c r="O13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="14">
         <v>0</v>
       </c>
-      <c r="R13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:18">
-      <c r="A14" s="10">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10">
-        <v>3003</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="R13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:18">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16">
         <v>3</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="12">
+        <v>47</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="14">
         <v>1</v>
       </c>
       <c r="M14" s="17">
         <v>1</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="10">
-        <v>2</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="12">
+      <c r="O14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="14">
         <v>0</v>
       </c>
-      <c r="R14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="17:17">
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:18">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10">
-        <v>4001</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:18">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="1:18">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="17">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="1:18">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="12">
+        <v>47</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="14">
         <v>1</v>
       </c>
       <c r="M17" s="17">
         <v>1</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="1:18">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="17">
+        <v>1</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="11" customFormat="1" spans="1:18">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="17">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:18">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:18">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="11" customFormat="1" spans="1:18">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:18">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="16">
+        <v>3</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="1" spans="2:17">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="2:17">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:18">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10">
         <v>2</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="12">
+      <c r="F27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="12">
+        <v>1</v>
+      </c>
+      <c r="M27" s="17">
+        <v>1</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="10">
+        <v>2</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="12">
         <v>0</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:18">
+      <c r="A30" s="10">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3001</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="12">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17">
+        <v>1</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="10">
+        <v>2</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="10" customFormat="1" spans="1:18">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3002</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="12">
+        <v>1</v>
+      </c>
+      <c r="M31" s="17">
+        <v>1</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="10">
+        <v>2</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="10" customFormat="1" spans="1:18">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10">
+        <v>3003</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="12">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17">
+        <v>1</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="10">
+        <v>2</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17">
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:18">
+      <c r="A35" s="10">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10">
+        <v>4001</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="10">
+        <v>5</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="12">
+        <v>1</v>
+      </c>
+      <c r="M35" s="17">
+        <v>1</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="10">
+        <v>2</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4 J4:R4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:R4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2162,24 +3071,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.8583333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.7833333333333" customWidth="1"/>
     <col min="5" max="5" width="17.7083333333333" customWidth="1"/>
     <col min="6" max="6" width="37.7916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="71.25" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2191,10 +3101,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -2231,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>24</v>
@@ -2244,13 +3154,34 @@
       <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2270,32 +3201,32 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="75.8666666666667" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2306,13 +3237,13 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2320,16 +3251,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2340,13 +3271,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2354,16 +3285,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2374,13 +3305,13 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2388,14 +3319,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2403,16 +3334,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2420,16 +3351,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2440,13 +3371,13 @@
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2454,16 +3385,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2471,16 +3402,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2488,13 +3419,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2502,10 +3433,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2513,10 +3444,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2524,10 +3455,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2535,10 +3466,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2546,10 +3477,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2557,10 +3488,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2568,10 +3499,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2579,10 +3510,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2590,10 +3521,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2601,10 +3532,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2615,7 +3546,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2623,10 +3554,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2634,13 +3565,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>46</v>
@@ -2657,10 +3588,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2668,16 +3599,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2685,16 +3616,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2702,13 +3633,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2716,16 +3647,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2733,16 +3664,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2750,16 +3681,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2767,16 +3698,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2784,16 +3715,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2801,14 +3732,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2816,11 +3747,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2831,13 +3762,13 @@
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
